--- a/timesheets_xls/timesheet_cdm_march.xlsx
+++ b/timesheets_xls/timesheet_cdm_march.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4:48</t>
+          <t>6:49</t>
         </is>
       </c>
     </row>
@@ -526,6 +526,33 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14.03.2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02:01</t>
         </is>
       </c>
     </row>
